--- a/docs/Organização Rod.xlsx
+++ b/docs/Organização Rod.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\Documents\Inventario Ferreira de Aguiar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\Documents\Inventario Ferreira de Aguiar\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290FC7C0-4BC5-4C75-BB3A-E5395C2353E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD255E52-319D-417A-A407-CB0C59EECB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7C40A3C8-12D5-42CB-82DB-41FA6698F574}"/>
+    <workbookView xWindow="22944" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="2" xr2:uid="{7C40A3C8-12D5-42CB-82DB-41FA6698F574}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1 (2)" sheetId="2" r:id="rId1"/>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1BD052-094B-4ECB-A5DE-FC9AC9B490B3}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,7 +651,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D02F291-5035-4CA2-B90F-6B09D3BE94D6}">
   <dimension ref="B1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
